--- a/dataset/score/vrushadhipa.xlsx
+++ b/dataset/score/vrushadhipa.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8324999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9125</v>
+        <v>0.75</v>
       </c>
       <c r="J4" t="n">
         <v>0.25</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
         <v>0.75</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.845</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J8" t="n">
         <v>0.25</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J10" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.7785714285714286</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.945</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J15" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>0.5</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
         <v>0.5</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J23" t="n">
         <v>0.75</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J26" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J28" t="n">
         <v>0.75</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8975</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J30" t="n">
         <v>0.5</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.945</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J35" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
         <v>0.75</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J38" t="n">
         <v>0.75</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J44" t="n">
         <v>0.75</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8952380952380953</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2593,10 +2593,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J46" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9324999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2833,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9125</v>
+        <v>0.75</v>
       </c>
       <c r="J50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J52" t="n">
         <v>0.5</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
         <v>0.75</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J54" t="n">
         <v>0.5</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.525</v>
+        <v>0.4260714285714286</v>
       </c>
       <c r="G55" t="n">
         <v>0.75</v>
@@ -3073,10 +3073,10 @@
         <v>0.9875</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J55" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0.25</v>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J56" t="n">
         <v>0.75</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J57" t="n">
         <v>0.5</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3313,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.5380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3457,7 +3457,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
         <v>0.25</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>0.9880952380952381</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.5675000000000001</v>
+        <v>0.5092857142857143</v>
       </c>
       <c r="G66" t="n">
         <v>0.75</v>
@@ -3601,7 +3601,7 @@
         <v>0.975</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6125</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J66" t="n">
         <v>0.25</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.8425</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J67" t="n">
         <v>0.5</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J70" t="n">
         <v>0.5</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
         <v>0.75</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5117857142857143</v>
       </c>
       <c r="G75" t="n">
         <v>0.75</v>
@@ -4033,7 +4033,7 @@
         <v>0.9875</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3625</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J75" t="n">
         <v>0.25</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J80" t="n">
         <v>0.75</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J82" t="n">
         <v>0.5</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
         <v>0.5</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4609,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J87" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J89" t="n">
         <v>0.5</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J91" t="n">
         <v>0.75</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
         <v>0.75</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4945,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J96" t="n">
         <v>0.75</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5089,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
         <v>0.5</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J103" t="n">
         <v>0.75</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5521,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J109" t="n">
         <v>0.5</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.8952380952380953</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J110" t="n">
         <v>0.5</v>
